--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.36094259176819</v>
+        <v>3.401172666666667</v>
       </c>
       <c r="H2">
-        <v>3.36094259176819</v>
+        <v>10.203518</v>
       </c>
       <c r="I2">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321656</v>
       </c>
       <c r="J2">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321655</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N2">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O2">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P2">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q2">
-        <v>103.8112575682664</v>
+        <v>107.5891419118967</v>
       </c>
       <c r="R2">
-        <v>103.8112575682664</v>
+        <v>968.3022772070701</v>
       </c>
       <c r="S2">
-        <v>0.2673477336331829</v>
+        <v>0.2551012407202947</v>
       </c>
       <c r="T2">
-        <v>0.2673477336331829</v>
+        <v>0.2551012407202946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.36094259176819</v>
+        <v>3.401172666666667</v>
       </c>
       <c r="H3">
-        <v>3.36094259176819</v>
+        <v>10.203518</v>
       </c>
       <c r="I3">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321656</v>
       </c>
       <c r="J3">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321655</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N3">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O3">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P3">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q3">
-        <v>28.64864821798262</v>
+        <v>29.32584038586222</v>
       </c>
       <c r="R3">
-        <v>28.64864821798262</v>
+        <v>263.93256347276</v>
       </c>
       <c r="S3">
-        <v>0.07377958183095229</v>
+        <v>0.06953358057009988</v>
       </c>
       <c r="T3">
-        <v>0.07377958183095229</v>
+        <v>0.06953358057009987</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.36094259176819</v>
+        <v>3.401172666666667</v>
       </c>
       <c r="H4">
-        <v>3.36094259176819</v>
+        <v>10.203518</v>
       </c>
       <c r="I4">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321656</v>
       </c>
       <c r="J4">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321655</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N4">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O4">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P4">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q4">
-        <v>56.71723127261438</v>
+        <v>63.6317242729509</v>
       </c>
       <c r="R4">
-        <v>56.71723127261438</v>
+        <v>572.6855184565582</v>
       </c>
       <c r="S4">
-        <v>0.1460653073074583</v>
+        <v>0.1508751861269985</v>
       </c>
       <c r="T4">
-        <v>0.1460653073074583</v>
+        <v>0.1508751861269985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.36094259176819</v>
+        <v>3.401172666666667</v>
       </c>
       <c r="H5">
-        <v>3.36094259176819</v>
+        <v>10.203518</v>
       </c>
       <c r="I5">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321656</v>
       </c>
       <c r="J5">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321655</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.89641046688611</v>
+        <v>4.297619333333333</v>
       </c>
       <c r="N5">
-        <v>2.89641046688611</v>
+        <v>12.892858</v>
       </c>
       <c r="O5">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="P5">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="Q5">
-        <v>9.734669301400716</v>
+        <v>14.61694540827156</v>
       </c>
       <c r="R5">
-        <v>9.734669301400716</v>
+        <v>131.552508674444</v>
       </c>
       <c r="S5">
-        <v>0.02506993785030074</v>
+        <v>0.03465778091477256</v>
       </c>
       <c r="T5">
-        <v>0.02506993785030074</v>
+        <v>0.03465778091477255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.53711574538192</v>
+        <v>2.579868</v>
       </c>
       <c r="H6">
-        <v>2.53711574538192</v>
+        <v>7.739604</v>
       </c>
       <c r="I6">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126509</v>
       </c>
       <c r="J6">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126508</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N6">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O6">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P6">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q6">
-        <v>78.36527073370274</v>
+        <v>81.60884834993999</v>
       </c>
       <c r="R6">
-        <v>78.36527073370274</v>
+        <v>734.47963514946</v>
       </c>
       <c r="S6">
-        <v>0.2018160459373008</v>
+        <v>0.1935001813182233</v>
       </c>
       <c r="T6">
-        <v>0.2018160459373008</v>
+        <v>0.1935001813182233</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.53711574538192</v>
+        <v>2.579868</v>
       </c>
       <c r="H7">
-        <v>2.53711574538192</v>
+        <v>7.739604</v>
       </c>
       <c r="I7">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126509</v>
       </c>
       <c r="J7">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126508</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N7">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O7">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P7">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q7">
-        <v>21.62635465889106</v>
+        <v>22.24432705992</v>
       </c>
       <c r="R7">
-        <v>21.62635465889106</v>
+        <v>200.19894353928</v>
       </c>
       <c r="S7">
-        <v>0.05569489321521667</v>
+        <v>0.05274282637759518</v>
       </c>
       <c r="T7">
-        <v>0.05569489321521667</v>
+        <v>0.05274282637759517</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.53711574538192</v>
+        <v>2.579868</v>
       </c>
       <c r="H8">
-        <v>2.53711574538192</v>
+        <v>7.739604</v>
       </c>
       <c r="I8">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126509</v>
       </c>
       <c r="J8">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126508</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N8">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O8">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P8">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q8">
-        <v>42.81482844981088</v>
+        <v>48.266132103636</v>
       </c>
       <c r="R8">
-        <v>42.81482844981088</v>
+        <v>434.3951889327241</v>
       </c>
       <c r="S8">
-        <v>0.1102621008557117</v>
+        <v>0.1144423123523927</v>
       </c>
       <c r="T8">
-        <v>0.1102621008557117</v>
+        <v>0.1144423123523927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.53711574538192</v>
+        <v>2.579868</v>
       </c>
       <c r="H9">
-        <v>2.53711574538192</v>
+        <v>7.739604</v>
       </c>
       <c r="I9">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126509</v>
       </c>
       <c r="J9">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126508</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.89641046688611</v>
+        <v>4.297619333333333</v>
       </c>
       <c r="N9">
-        <v>2.89641046688611</v>
+        <v>12.892858</v>
       </c>
       <c r="O9">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="P9">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="Q9">
-        <v>7.348528600625749</v>
+        <v>11.087290594248</v>
       </c>
       <c r="R9">
-        <v>7.348528600625749</v>
+        <v>99.785615348232</v>
       </c>
       <c r="S9">
-        <v>0.01892484989524365</v>
+        <v>0.02628872706443966</v>
       </c>
       <c r="T9">
-        <v>0.01892484989524365</v>
+        <v>0.02628872706443966</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.662918103696858</v>
+        <v>0.6857320000000001</v>
       </c>
       <c r="H10">
-        <v>0.662918103696858</v>
+        <v>2.057196</v>
       </c>
       <c r="I10">
-        <v>0.1010395494746329</v>
+        <v>0.1028581645551836</v>
       </c>
       <c r="J10">
-        <v>0.1010395494746329</v>
+        <v>0.1028581645551836</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.8875426264426</v>
+        <v>31.632955</v>
       </c>
       <c r="N10">
-        <v>30.8875426264426</v>
+        <v>94.898865</v>
       </c>
       <c r="O10">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="P10">
-        <v>0.5218959068736525</v>
+        <v>0.5000340016649593</v>
       </c>
       <c r="Q10">
-        <v>20.4759111857772</v>
+        <v>21.69172949806</v>
       </c>
       <c r="R10">
-        <v>20.4759111857772</v>
+        <v>195.22556548254</v>
       </c>
       <c r="S10">
-        <v>0.05273212730316881</v>
+        <v>0.05143257962644133</v>
       </c>
       <c r="T10">
-        <v>0.05273212730316881</v>
+        <v>0.05143257962644131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.662918103696858</v>
+        <v>0.6857320000000001</v>
       </c>
       <c r="H11">
-        <v>0.662918103696858</v>
+        <v>2.057196</v>
       </c>
       <c r="I11">
-        <v>0.1010395494746329</v>
+        <v>0.1028581645551836</v>
       </c>
       <c r="J11">
-        <v>0.1010395494746329</v>
+        <v>0.1028581645551836</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.523992134870291</v>
+        <v>8.622273333333332</v>
       </c>
       <c r="N11">
-        <v>8.523992134870291</v>
+        <v>25.86682</v>
       </c>
       <c r="O11">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="P11">
-        <v>0.1440268868007508</v>
+        <v>0.1362955132808722</v>
       </c>
       <c r="Q11">
-        <v>5.650708701975145</v>
+        <v>5.912568737413333</v>
       </c>
       <c r="R11">
-        <v>5.650708701975145</v>
+        <v>53.21311863672</v>
       </c>
       <c r="S11">
-        <v>0.01455241175458181</v>
+        <v>0.01401910633317717</v>
       </c>
       <c r="T11">
-        <v>0.01455241175458181</v>
+        <v>0.01401910633317716</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.662918103696858</v>
+        <v>0.6857320000000001</v>
       </c>
       <c r="H12">
-        <v>0.662918103696858</v>
+        <v>2.057196</v>
       </c>
       <c r="I12">
-        <v>0.1010395494746329</v>
+        <v>0.1028581645551836</v>
       </c>
       <c r="J12">
-        <v>0.1010395494746329</v>
+        <v>0.1028581645551836</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.87539424551</v>
+        <v>18.70876033333333</v>
       </c>
       <c r="N12">
-        <v>16.87539424551</v>
+        <v>56.12628100000001</v>
       </c>
       <c r="O12">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="P12">
-        <v>0.2851375808728494</v>
+        <v>0.2957364019791172</v>
       </c>
       <c r="Q12">
-        <v>11.18700435237036</v>
+        <v>12.82919564089734</v>
       </c>
       <c r="R12">
-        <v>11.18700435237036</v>
+        <v>115.462760768076</v>
       </c>
       <c r="S12">
-        <v>0.0288101727096794</v>
+        <v>0.03041890349972596</v>
       </c>
       <c r="T12">
-        <v>0.0288101727096794</v>
+        <v>0.03041890349972595</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.662918103696858</v>
+        <v>0.6857320000000001</v>
       </c>
       <c r="H13">
-        <v>0.662918103696858</v>
+        <v>2.057196</v>
       </c>
       <c r="I13">
-        <v>0.1010395494746329</v>
+        <v>0.1028581645551836</v>
       </c>
       <c r="J13">
-        <v>0.1010395494746329</v>
+        <v>0.1028581645551836</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.89641046688611</v>
+        <v>4.297619333333333</v>
       </c>
       <c r="N13">
-        <v>2.89641046688611</v>
+        <v>12.892858</v>
       </c>
       <c r="O13">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="P13">
-        <v>0.04893962545274725</v>
+        <v>0.06793408307505136</v>
       </c>
       <c r="Q13">
-        <v>1.920082934235871</v>
+        <v>2.947015100685334</v>
       </c>
       <c r="R13">
-        <v>1.920082934235871</v>
+        <v>26.523135906168</v>
       </c>
       <c r="S13">
-        <v>0.004944837707202858</v>
+        <v>0.006987575095839146</v>
       </c>
       <c r="T13">
-        <v>0.004944837707202858</v>
+        <v>0.006987575095839144</v>
       </c>
     </row>
   </sheetData>
